--- a/QA/Compatibility/Compatibility.xlsx
+++ b/QA/Compatibility/Compatibility.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB65645F-4E4F-403D-867E-7EA685B12C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E4C9C3-DF35-4B73-A66A-AF9FA30229D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compatibility and Configuration" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,326 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
   <si>
     <t>Выведите свою личную формулировку Compatibility and Configuration testing</t>
+  </si>
+  <si>
+    <t>Configuration testing - checking for compatibility of the application on various configuration data of the workstation, such as: memory, processor, operating system, drivers, network environment</t>
+  </si>
+  <si>
+    <t>Compatibility - checking for correct operation in a specific environment, considering also installed programs, printers, antiviruses.</t>
+  </si>
+  <si>
+    <t>for North America</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Wersion Browser</t>
+  </si>
+  <si>
+    <t>Platform version</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Win 10</t>
+  </si>
+  <si>
+    <t>iOS 11.4</t>
+  </si>
+  <si>
+    <t>8.0 Oreo</t>
+  </si>
+  <si>
+    <t>Chrome 68.0</t>
+  </si>
+  <si>
+    <t>Safari iPad</t>
+  </si>
+  <si>
+    <t>Moduls</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Wimdows 10, 
+Chrome 51.0</t>
+  </si>
+  <si>
+    <t>Wimdows 10 , 
+Chrome 69.0</t>
+  </si>
+  <si>
+    <t>Mac OS 11
+Safari 9.1</t>
+  </si>
+  <si>
+    <t>Windows 10,
+Mozila Firefox 62.0</t>
+  </si>
+  <si>
+    <t>Windows 10,
+IE 11.0</t>
+  </si>
+  <si>
+    <t>Windows 10,
+IE 9.0</t>
+  </si>
+  <si>
+    <t>Ivan Shmidt</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Check the ability to search with valid data</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Check whether the entrance to the site with one not valid value</t>
+  </si>
+  <si>
+    <t>Check if menu links work</t>
+  </si>
+  <si>
+    <t>Check if the transition to the main page works by clicking on the store logo</t>
+  </si>
+  <si>
+    <t>Check if language switching works</t>
+  </si>
+  <si>
+    <t>Check whether products are displayed by category on the main page</t>
+  </si>
+  <si>
+    <t>Check whether the transition to the product page from the main page</t>
+  </si>
+  <si>
+    <t>Check the possibility of adding goods to the cart</t>
+  </si>
+  <si>
+    <t>Check the possibility of removing goods from the cart</t>
+  </si>
+  <si>
+    <t>Check the possibility of sending comments to the product</t>
+  </si>
+  <si>
+    <t>Check the "Back to top" button</t>
+  </si>
+  <si>
+    <t>Check language change</t>
+  </si>
+  <si>
+    <t>Check the links in the menu</t>
+  </si>
+  <si>
+    <t>Check the transition to the main page by clicking on the logo</t>
+  </si>
+  <si>
+    <t>Check country change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Reprodusebility</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Envirements</t>
+  </si>
+  <si>
+    <t>Win 10, IE 4.5</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>B_1.jpg</t>
+  </si>
+  <si>
+    <t>B_1</t>
+  </si>
+  <si>
+    <t>In IE 4.5, the back up button does not perform its function</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- go to the link: amazon.com
+2- scroll to the end and find the "Back to top" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STR:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Press the "Back to top" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Act:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After pressing the button, no action is taken
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After clicking the button, the site is scrolled up to the starting point</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,8 +366,104 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,8 +475,24 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -93,18 +515,333 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,12 +1130,21 @@
     <col min="1" max="1" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -407,38 +1153,750 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354872D-701A-4EC4-BB17-4E6E04769EC3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6453C-0FE6-4D50-A713-08AF040DBC95}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="33">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="34">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="35">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="33">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="33">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="33">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="36">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="35">
+        <v>11</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="33">
+        <v>12</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="33">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="33">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="33">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF2926-1174-4E3B-A3BE-03FE53BCC8E1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>